--- a/sales_data_sample_filtrada.xlsx
+++ b/sales_data_sample_filtrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelogoncalves/PycharmProjects/Modelos de Regressão LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1427EB69-EAA4-054E-ADC4-977C43FED6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4132CE07-8AF8-6241-B283-ECD9F7A87087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="3585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4112" uniqueCount="3584">
   <si>
     <t>ORDERNUMBER</t>
   </si>
@@ -10775,9 +10775,6 @@
   </si>
   <si>
     <t>2116.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -11634,13 +11631,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2824"/>
+  <dimension ref="A1:J2824"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11672,7 +11671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>10107</v>
       </c>
@@ -11704,7 +11703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>10121</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10134</v>
       </c>
@@ -11768,7 +11767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10145</v>
       </c>
@@ -11800,7 +11799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10159</v>
       </c>
@@ -11832,7 +11831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10168</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10180</v>
       </c>
@@ -11896,7 +11895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10188</v>
       </c>
@@ -11928,7 +11927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10201</v>
       </c>
@@ -11960,7 +11959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10211</v>
       </c>
@@ -11991,11 +11990,8 @@
       <c r="J11" s="1">
         <v>2</v>
       </c>
-      <c r="L11" t="s">
-        <v>3584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10223</v>
       </c>
@@ -12027,7 +12023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10237</v>
       </c>
@@ -12059,7 +12055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10251</v>
       </c>
@@ -12091,7 +12087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>10263</v>
       </c>
@@ -12123,7 +12119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>10275</v>
       </c>
